--- a/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
@@ -888,11 +888,19 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="C3" s="9" t="n"/>
-      <c r="D3" s="10" t="n"/>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E3" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+2</t>
         </is>
       </c>
       <c r="F3" s="17">
@@ -903,11 +911,19 @@
         <f>C3-D3</f>
         <v/>
       </c>
-      <c r="H3" s="9" t="n"/>
-      <c r="I3" s="10" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I3" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J3" s="10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>+3</t>
         </is>
       </c>
       <c r="K3" s="17">
@@ -918,11 +934,19 @@
         <f>H3-I3</f>
         <v/>
       </c>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="10" t="n"/>
+      <c r="M3" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N3" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="O3" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+4</t>
         </is>
       </c>
       <c r="P3" s="17">
@@ -933,11 +957,19 @@
         <f>M3-N3</f>
         <v/>
       </c>
-      <c r="R3" s="9" t="n"/>
-      <c r="S3" s="10" t="n"/>
+      <c r="R3" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S3" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="T3" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+5</t>
         </is>
       </c>
       <c r="U3" s="17">
@@ -948,11 +980,19 @@
         <f>R3-S3</f>
         <v/>
       </c>
-      <c r="W3" s="9" t="n"/>
-      <c r="X3" s="10" t="n"/>
+      <c r="W3" s="9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X3" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="Y3" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+6</t>
         </is>
       </c>
       <c r="Z3" s="17">
@@ -993,11 +1033,19 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="C4" s="9" t="n"/>
-      <c r="D4" s="10" t="n"/>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E4" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+2</t>
         </is>
       </c>
       <c r="F4" s="17">
@@ -1008,11 +1056,19 @@
         <f>C4-D4</f>
         <v/>
       </c>
-      <c r="H4" s="9" t="n"/>
-      <c r="I4" s="10" t="n"/>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J4" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+3</t>
         </is>
       </c>
       <c r="K4" s="17">
@@ -1023,11 +1079,19 @@
         <f>H4-I4</f>
         <v/>
       </c>
-      <c r="M4" s="9" t="n"/>
-      <c r="N4" s="10" t="n"/>
+      <c r="M4" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="O4" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+4</t>
         </is>
       </c>
       <c r="P4" s="17">
@@ -1038,11 +1102,19 @@
         <f>M4-N4</f>
         <v/>
       </c>
-      <c r="R4" s="9" t="n"/>
-      <c r="S4" s="10" t="n"/>
+      <c r="R4" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S4" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="T4" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+5</t>
         </is>
       </c>
       <c r="U4" s="17">
@@ -1053,11 +1125,19 @@
         <f>R4-S4</f>
         <v/>
       </c>
-      <c r="W4" s="9" t="n"/>
-      <c r="X4" s="10" t="n"/>
+      <c r="W4" s="9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X4" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="Y4" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+6</t>
         </is>
       </c>
       <c r="Z4" s="17">
@@ -1098,11 +1178,19 @@
           <t>AK</t>
         </is>
       </c>
-      <c r="C5" s="9" t="n"/>
-      <c r="D5" s="10" t="n"/>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E5" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+2</t>
         </is>
       </c>
       <c r="F5" s="17">
@@ -1113,11 +1201,19 @@
         <f>C5-D5</f>
         <v/>
       </c>
-      <c r="H5" s="9" t="n"/>
-      <c r="I5" s="10" t="n"/>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I5" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J5" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+3</t>
         </is>
       </c>
       <c r="K5" s="17">
@@ -1128,11 +1224,19 @@
         <f>H5-I5</f>
         <v/>
       </c>
-      <c r="M5" s="9" t="n"/>
-      <c r="N5" s="10" t="n"/>
+      <c r="M5" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N5" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="O5" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+4</t>
         </is>
       </c>
       <c r="P5" s="17">
@@ -1143,11 +1247,19 @@
         <f>M5-N5</f>
         <v/>
       </c>
-      <c r="R5" s="9" t="n"/>
-      <c r="S5" s="10" t="n"/>
+      <c r="R5" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S5" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="T5" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+5</t>
         </is>
       </c>
       <c r="U5" s="17">
@@ -1158,11 +1270,19 @@
         <f>R5-S5</f>
         <v/>
       </c>
-      <c r="W5" s="9" t="n"/>
-      <c r="X5" s="10" t="n"/>
+      <c r="W5" s="9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X5" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="Y5" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+6</t>
         </is>
       </c>
       <c r="Z5" s="17">
@@ -1203,11 +1323,19 @@
           <t>VK</t>
         </is>
       </c>
-      <c r="C6" s="9" t="n"/>
-      <c r="D6" s="10" t="n"/>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+2</t>
         </is>
       </c>
       <c r="F6" s="17">
@@ -1218,11 +1346,19 @@
         <f>C6-D6</f>
         <v/>
       </c>
-      <c r="H6" s="9" t="n"/>
-      <c r="I6" s="10" t="n"/>
+      <c r="H6" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I6" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J6" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+3</t>
         </is>
       </c>
       <c r="K6" s="17">
@@ -1233,11 +1369,19 @@
         <f>H6-I6</f>
         <v/>
       </c>
-      <c r="M6" s="9" t="n"/>
-      <c r="N6" s="10" t="n"/>
+      <c r="M6" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N6" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="O6" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+4</t>
         </is>
       </c>
       <c r="P6" s="17">
@@ -1248,11 +1392,19 @@
         <f>M6-N6</f>
         <v/>
       </c>
-      <c r="R6" s="9" t="n"/>
-      <c r="S6" s="10" t="n"/>
+      <c r="R6" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S6" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="T6" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+5</t>
         </is>
       </c>
       <c r="U6" s="17">
@@ -1263,11 +1415,19 @@
         <f>R6-S6</f>
         <v/>
       </c>
-      <c r="W6" s="9" t="n"/>
-      <c r="X6" s="10" t="n"/>
+      <c r="W6" s="9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X6" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="Y6" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+6</t>
         </is>
       </c>
       <c r="Z6" s="17">
@@ -1308,11 +1468,19 @@
           <t>KJ</t>
         </is>
       </c>
-      <c r="C7" s="9" t="n"/>
-      <c r="D7" s="10" t="n"/>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E7" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+2</t>
         </is>
       </c>
       <c r="F7" s="17">
@@ -1323,11 +1491,19 @@
         <f>C7-D7</f>
         <v/>
       </c>
-      <c r="H7" s="9" t="n"/>
-      <c r="I7" s="10" t="n"/>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J7" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+3</t>
         </is>
       </c>
       <c r="K7" s="17">
@@ -1338,11 +1514,19 @@
         <f>H7-I7</f>
         <v/>
       </c>
-      <c r="M7" s="9" t="n"/>
-      <c r="N7" s="10" t="n"/>
+      <c r="M7" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="O7" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+4</t>
         </is>
       </c>
       <c r="P7" s="17">
@@ -1353,11 +1537,19 @@
         <f>M7-N7</f>
         <v/>
       </c>
-      <c r="R7" s="9" t="n"/>
-      <c r="S7" s="10" t="n"/>
+      <c r="R7" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S7" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="T7" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+5</t>
         </is>
       </c>
       <c r="U7" s="17">
@@ -1368,11 +1560,19 @@
         <f>R7-S7</f>
         <v/>
       </c>
-      <c r="W7" s="9" t="n"/>
-      <c r="X7" s="10" t="n"/>
+      <c r="W7" s="9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X7" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="Y7" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+6</t>
         </is>
       </c>
       <c r="Z7" s="17">
@@ -1413,11 +1613,19 @@
           <t>BT</t>
         </is>
       </c>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="10" t="n"/>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+2</t>
         </is>
       </c>
       <c r="F8" s="17">
@@ -1428,11 +1636,19 @@
         <f>C8-D8</f>
         <v/>
       </c>
-      <c r="H8" s="9" t="n"/>
-      <c r="I8" s="10" t="n"/>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I8" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J8" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+3</t>
         </is>
       </c>
       <c r="K8" s="17">
@@ -1443,11 +1659,19 @@
         <f>H8-I8</f>
         <v/>
       </c>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="10" t="n"/>
+      <c r="M8" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N8" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="O8" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+4</t>
         </is>
       </c>
       <c r="P8" s="17">
@@ -1458,11 +1682,19 @@
         <f>M8-N8</f>
         <v/>
       </c>
-      <c r="R8" s="9" t="n"/>
-      <c r="S8" s="10" t="n"/>
+      <c r="R8" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S8" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="T8" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+5</t>
         </is>
       </c>
       <c r="U8" s="17">
@@ -1473,11 +1705,19 @@
         <f>R8-S8</f>
         <v/>
       </c>
-      <c r="W8" s="9" t="n"/>
-      <c r="X8" s="10" t="n"/>
+      <c r="W8" s="9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X8" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="Y8" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+6</t>
         </is>
       </c>
       <c r="Z8" s="17">
@@ -1518,11 +1758,19 @@
           <t>OD</t>
         </is>
       </c>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="10" t="n"/>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+2</t>
         </is>
       </c>
       <c r="F9" s="17">
@@ -1533,11 +1781,19 @@
         <f>C9-D9</f>
         <v/>
       </c>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="10" t="n"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J9" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+3</t>
         </is>
       </c>
       <c r="K9" s="17">
@@ -1548,11 +1804,19 @@
         <f>H9-I9</f>
         <v/>
       </c>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="10" t="n"/>
+      <c r="M9" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="O9" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+4</t>
         </is>
       </c>
       <c r="P9" s="17">
@@ -1563,11 +1827,19 @@
         <f>M9-N9</f>
         <v/>
       </c>
-      <c r="R9" s="9" t="n"/>
-      <c r="S9" s="10" t="n"/>
+      <c r="R9" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S9" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="T9" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+5</t>
         </is>
       </c>
       <c r="U9" s="17">
@@ -1578,11 +1850,19 @@
         <f>R9-S9</f>
         <v/>
       </c>
-      <c r="W9" s="9" t="n"/>
-      <c r="X9" s="10" t="n"/>
+      <c r="W9" s="9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X9" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="Y9" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">+ </t>
+          <t>+6</t>
         </is>
       </c>
       <c r="Z9" s="17">

--- a/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373DA38-34F2-4C3A-81AC-059FCF55B562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121B78D4-0C63-47E0-B60D-1E3064BB1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121B78D4-0C63-47E0-B60D-1E3064BB1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681CC35-81B8-4FD8-A7E3-4656EC87F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681CC35-81B8-4FD8-A7E3-4656EC87F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C37F07C-5ACD-4849-BE58-2D99255AEEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C37F07C-5ACD-4849-BE58-2D99255AEEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A052BBD-B244-48A2-AF40-9AEEC8FA842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
   <si>
     <t>SR.NO.</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>OD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ </t>
   </si>
   <si>
     <t>Standard: SYJC (12th Standard)</t>
@@ -287,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,6 +387,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -696,11 +701,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="31" max="31" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -854,17 +862,17 @@
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29">
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="14" t="str">
-        <f t="shared" ref="F3:F9" si="0">SUBSTITUTE(TRIM(CONCATENATE(D3, "", E3)),"+ 0"," ")</f>
+        <f t="shared" ref="F3:F11" si="0">SUBSTITUTE(TRIM(CONCATENATE(D3, "", E3)),"+ 0"," ")</f>
         <v>2+2</v>
       </c>
       <c r="G3" s="15">
@@ -970,8 +978,8 @@
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
+      <c r="D4" s="29">
+        <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>15</v>
@@ -1083,8 +1091,8 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
+      <c r="D5" s="29">
+        <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
@@ -1196,8 +1204,8 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
+      <c r="D6" s="29">
+        <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -1309,8 +1317,8 @@
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
+      <c r="D7" s="29">
+        <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>15</v>
@@ -1422,8 +1430,8 @@
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
+      <c r="D8" s="29">
+        <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>15</v>
@@ -1535,8 +1543,8 @@
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
+      <c r="D9" s="29">
+        <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1678,80 +1686,100 @@
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="21">
-        <f>SUM(C3:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
+        <f>C3+C4+C5+C6+C7+C8+C9</f>
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D3+D4+D5+D6+D7+D8+D9</f>
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="str">
+        <f>"+" &amp; (IFERROR(VALUE(E3),0) + IFERROR(VALUE(E4),0) + IFERROR(VALUE(E5),0) + IFERROR(VALUE(E6),0) + IFERROR(VALUE(E7),0) + IFERROR(VALUE(E8),0) + IFERROR(VALUE(E9),0))</f>
+        <v>+14</v>
       </c>
       <c r="F11" s="22" t="str">
-        <f>CONCATENATE(D11, " ", E11)</f>
-        <v xml:space="preserve"> + </v>
+        <f>SUBSTITUTE(TRIM(CONCATENATE(D11, "", E11)),"+ 0"," ")</f>
+        <v>14+14</v>
       </c>
       <c r="G11" s="21">
         <f>C11-D11</f>
         <v>0</v>
       </c>
       <c r="H11" s="21">
-        <f>SUM(H3:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>30</v>
+        <f>H3+H4+H5+H6+H7+H8+H9</f>
+        <v>21</v>
+      </c>
+      <c r="I11" s="3">
+        <f>I3+I4+I5+I6+I7+I8+I9</f>
+        <v>21</v>
+      </c>
+      <c r="J11" s="30" t="str">
+        <f>"+" &amp; (IFERROR(VALUE(J3),0) + IFERROR(VALUE(J4),0) + IFERROR(VALUE(J5),0) + IFERROR(VALUE(J6),0) + IFERROR(VALUE(J7),0) + IFERROR(VALUE(J8),0) + IFERROR(VALUE(J9),0))</f>
+        <v>+21</v>
       </c>
       <c r="K11" s="22" t="str">
         <f>CONCATENATE(I11, " ", J11)</f>
-        <v xml:space="preserve"> + </v>
+        <v>21 +21</v>
       </c>
       <c r="L11" s="21">
         <f>H11-I11</f>
         <v>0</v>
       </c>
       <c r="M11" s="21">
-        <f>SUM(M3:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
-        <v>30</v>
+        <f>M3+M4+M5+M6+M7+M8+M9</f>
+        <v>28</v>
+      </c>
+      <c r="N11" s="3">
+        <f>N3+N4+N5+N6+N7+N8+N9</f>
+        <v>28</v>
+      </c>
+      <c r="O11" s="30" t="str">
+        <f>"+" &amp; (IFERROR(VALUE(O3),0) + IFERROR(VALUE(O4),0) + IFERROR(VALUE(O5),0) + IFERROR(VALUE(O6),0) + IFERROR(VALUE(O7),0) + IFERROR(VALUE(O8),0) + IFERROR(VALUE(O9),0))</f>
+        <v>+28</v>
       </c>
       <c r="P11" s="22" t="str">
         <f>CONCATENATE(N11, " ", O11)</f>
-        <v xml:space="preserve"> + </v>
+        <v>28 +28</v>
       </c>
       <c r="Q11" s="21">
         <f>M11-N11</f>
         <v>0</v>
       </c>
       <c r="R11" s="21">
-        <f>SUM(R3:R9)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3" t="s">
-        <v>30</v>
+        <f>R3+R4+R5+R6+R7+R8+R9</f>
+        <v>35</v>
+      </c>
+      <c r="S11" s="3">
+        <f>S3+S4+S5+S6+S7+S8+S9</f>
+        <v>35</v>
+      </c>
+      <c r="T11" s="30" t="str">
+        <f>"+" &amp; (IFERROR(VALUE(T3),0) + IFERROR(VALUE(T4),0) + IFERROR(VALUE(T5),0) + IFERROR(VALUE(T6),0) + IFERROR(VALUE(T7),0) + IFERROR(VALUE(T8),0) + IFERROR(VALUE(T9),0))</f>
+        <v>+35</v>
       </c>
       <c r="U11" s="22" t="str">
         <f>CONCATENATE(S11, "", T11)</f>
-        <v xml:space="preserve">+ </v>
+        <v>35+35</v>
       </c>
       <c r="V11" s="21">
         <f>R11-S11</f>
         <v>0</v>
       </c>
       <c r="W11" s="21">
-        <f>SUM(W3:W9)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3" t="s">
-        <v>30</v>
+        <f>W3+W4+W5+W6+W7+W8+W9</f>
+        <v>42</v>
+      </c>
+      <c r="X11" s="3">
+        <f>X3+X4+X5+X6+X7+X8+X9</f>
+        <v>42</v>
+      </c>
+      <c r="Y11" s="30" t="str">
+        <f>"+" &amp; (IFERROR(VALUE(Y3),0) + IFERROR(VALUE(Y4),0) + IFERROR(VALUE(Y5),0) + IFERROR(VALUE(Y6),0) + IFERROR(VALUE(Y7),0) + IFERROR(VALUE(Y8),0) + IFERROR(VALUE(Y9),0))</f>
+        <v>+42</v>
       </c>
       <c r="Z11" s="22" t="str">
         <f>CONCATENATE(X11, " ", Y11)</f>
-        <v xml:space="preserve"> + </v>
+        <v>42 +42</v>
       </c>
       <c r="AA11" s="21">
         <f>W11-X11</f>
@@ -1759,28 +1787,28 @@
       </c>
       <c r="AB11" s="23">
         <f>C11+H11+M11+R11+W11</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AC11" s="21">
         <f>D11+I11+N11+S11+X11</f>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="17">
-        <f>IFERROR(VALUE(MID(E11,2,3)) + VALUE(MID(J11,2,3)) + VALUE(MID(O11,2,3)) + VALUE(MID(T11,2,3)) + VALUE(MID(Y11,2,3)), 0)</f>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="AD11" s="3">
+        <f>AD3+AD4+AD5+AD6+AD7+AD8+AD9</f>
+        <v>120</v>
       </c>
       <c r="AE11" s="22" t="str">
-        <f>CONCATENATE(MID(AC11,1,3),"+", MID(AD11,1,2))</f>
-        <v>0+0</v>
+        <f>CONCATENATE(MID(AC11,1,3),"+", MID(AD11,1,3))</f>
+        <v>140+120</v>
       </c>
       <c r="AF11" s="21">
-        <f>G11+L11+Q11+V11+AA11</f>
+        <f>AB11-AC11</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A052BBD-B244-48A2-AF40-9AEEC8FA842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A27D910-E239-4815-B3E5-4065FAE46303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +375,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -387,14 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -718,48 +714,48 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="25" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="25" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="25" t="s">
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="25" t="s">
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="28"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -865,14 +861,14 @@
       <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="14" t="str">
-        <f t="shared" ref="F3:F11" si="0">SUBSTITUTE(TRIM(CONCATENATE(D3, "", E3)),"+ 0"," ")</f>
+        <f t="shared" ref="F3:F9" si="0">SUBSTITUTE(TRIM(CONCATENATE(D3, "", E3)),"+ 0"," ")</f>
         <v>2+2</v>
       </c>
       <c r="G3" s="15">
@@ -978,7 +974,7 @@
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1091,7 +1087,7 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1204,7 +1200,7 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1317,7 +1313,7 @@
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1430,7 +1426,7 @@
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1543,7 +1539,7 @@
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1693,7 +1689,7 @@
         <f>D3+D4+D5+D6+D7+D8+D9</f>
         <v>14</v>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="E11" s="25" t="str">
         <f>"+" &amp; (IFERROR(VALUE(E3),0) + IFERROR(VALUE(E4),0) + IFERROR(VALUE(E5),0) + IFERROR(VALUE(E6),0) + IFERROR(VALUE(E7),0) + IFERROR(VALUE(E8),0) + IFERROR(VALUE(E9),0))</f>
         <v>+14</v>
       </c>
@@ -1713,7 +1709,7 @@
         <f>I3+I4+I5+I6+I7+I8+I9</f>
         <v>21</v>
       </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="25" t="str">
         <f>"+" &amp; (IFERROR(VALUE(J3),0) + IFERROR(VALUE(J4),0) + IFERROR(VALUE(J5),0) + IFERROR(VALUE(J6),0) + IFERROR(VALUE(J7),0) + IFERROR(VALUE(J8),0) + IFERROR(VALUE(J9),0))</f>
         <v>+21</v>
       </c>
@@ -1733,7 +1729,7 @@
         <f>N3+N4+N5+N6+N7+N8+N9</f>
         <v>28</v>
       </c>
-      <c r="O11" s="30" t="str">
+      <c r="O11" s="25" t="str">
         <f>"+" &amp; (IFERROR(VALUE(O3),0) + IFERROR(VALUE(O4),0) + IFERROR(VALUE(O5),0) + IFERROR(VALUE(O6),0) + IFERROR(VALUE(O7),0) + IFERROR(VALUE(O8),0) + IFERROR(VALUE(O9),0))</f>
         <v>+28</v>
       </c>
@@ -1753,7 +1749,7 @@
         <f>S3+S4+S5+S6+S7+S8+S9</f>
         <v>35</v>
       </c>
-      <c r="T11" s="30" t="str">
+      <c r="T11" s="25" t="str">
         <f>"+" &amp; (IFERROR(VALUE(T3),0) + IFERROR(VALUE(T4),0) + IFERROR(VALUE(T5),0) + IFERROR(VALUE(T6),0) + IFERROR(VALUE(T7),0) + IFERROR(VALUE(T8),0) + IFERROR(VALUE(T9),0))</f>
         <v>+35</v>
       </c>
@@ -1773,7 +1769,7 @@
         <f>X3+X4+X5+X6+X7+X8+X9</f>
         <v>42</v>
       </c>
-      <c r="Y11" s="30" t="str">
+      <c r="Y11" s="25" t="str">
         <f>"+" &amp; (IFERROR(VALUE(Y3),0) + IFERROR(VALUE(Y4),0) + IFERROR(VALUE(Y5),0) + IFERROR(VALUE(Y6),0) + IFERROR(VALUE(Y7),0) + IFERROR(VALUE(Y8),0) + IFERROR(VALUE(Y9),0))</f>
         <v>+42</v>
       </c>

--- a/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A27D910-E239-4815-B3E5-4065FAE46303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFCB442-1295-4DC3-8B2B-D18F0E9219BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFCB442-1295-4DC3-8B2B-D18F0E9219BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6164E314-832D-4804-9F0A-850316CA0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6164E314-832D-4804-9F0A-850316CA0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDC301-CA60-4BDA-BB6B-7A3FD11C9087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
